--- a/pred_ohlcv/54_21/2020-01-25 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 LTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-546.8064195200001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-624.6774195200001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-798.0595195200001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-814.4957195200001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-766.8009195200001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-766.8009195200001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-788.4988195200001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-786.8676195200001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-814.1365195200001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-442.96081952</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-440.57421952</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-440.7152258</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-472.4902258</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-477.4902258</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-503.9807258</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-504.2807258</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-503.2620258</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-523.4715258</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-218.8175258</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-218.7391258</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-269.3482258</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-3858.3786156</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-3545.2570156</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-3546.2347156</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-3546.2347156</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-3640.8137156</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-3656.1137156</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-3648.2717156</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-3701.4354156</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-3811.577115600001</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-3824.7821156</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-3845.5871156</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-4106.139356879999</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-4758.29345688</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-3806.76665688</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-2874.595964110001</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-2717.137464110001</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-2775.022264110001</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-2775.337664110001</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-2768.608364110001</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-2792.981564110001</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-2791.409564110001</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-2864.309564110001</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-2711.067264110001</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-2711.015264110001</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-2711.135264110001</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-2711.135264110001</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-2711.135264110001</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-2529.120064110001</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-2518.912359190001</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-2451.805959190001</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 LTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-546.8064195200001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-624.6774195200001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-798.0595195200001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-814.4957195200001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-766.8009195200001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-766.8009195200001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-788.4988195200001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-786.8676195200001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-814.1365195200001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-812.9881195200001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-695.12901952</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-498.22661952</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-432.96081952</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-442.96081952</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-440.57421952</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-440.7152258</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-472.4902258</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-477.4902258</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-503.9807258</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-504.2807258</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-503.2620258</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-523.4715258</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-218.8175258</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-218.7391258</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-269.3482258</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-859.6154258</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-3858.3786156</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-3545.2570156</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-3546.2347156</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-3546.2347156</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-3640.8137156</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-3656.1137156</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-3648.2717156</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-3701.4354156</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-3811.577115600001</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-3824.7821156</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-3845.5871156</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-4097.9733156</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-4019.01121392</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-4013.51275688</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-4004.90635688</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-4085.40965688</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-4085.40965688</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-4106.139356879999</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-4106.139356879999</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-4107.793956879999</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-4107.793956879999</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-4128.993956879999</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-4128.64615688</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-4128.86755688</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-4184.23525688</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-4758.29345688</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-4770.07085688</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-3806.76665688</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-3714.632056880001</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-2874.595964110001</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-2717.137464110001</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-2775.022264110001</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-2775.337664110001</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-2768.608364110001</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-2792.981564110001</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-2791.409564110001</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-2864.309564110001</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-2711.067264110001</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-2711.015264110001</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-2711.135264110001</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-2711.135264110001</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-2711.135264110001</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-2529.120064110001</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-2518.912359190001</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-2451.805959190001</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-2678.423751310002</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
